--- a/data/nba_odds_2019.xlsx
+++ b/data/nba_odds_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37755AE-607D-4813-A828-DA6480159CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E616E31-D241-4AE0-9536-4A811C33D5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{18B830BE-FE77-4DB6-A10C-48DE8E782004}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -171,31 +171,10 @@
     <t>GoldenState</t>
   </si>
   <si>
-    <t>1-105</t>
-  </si>
-  <si>
-    <t>1-111</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>LA Lakers</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Oklahoma City</t>
   </si>
 </sst>
 </file>
@@ -564,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB515FA-AC78-4561-B94F-9CE3A1CED250}">
-  <dimension ref="A1:M2089"/>
+  <dimension ref="A1:M2121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28729,8 +28708,8 @@
       <c r="I687" s="2">
         <v>99</v>
       </c>
-      <c r="J687" s="2" t="s">
-        <v>46</v>
+      <c r="J687" s="2">
+        <v>1105</v>
       </c>
       <c r="K687" s="2">
         <v>3</v>
@@ -29303,8 +29282,8 @@
       <c r="I701" s="2">
         <v>90</v>
       </c>
-      <c r="J701" s="2" t="s">
-        <v>47</v>
+      <c r="J701" s="2">
+        <v>1111</v>
       </c>
       <c r="K701" s="2">
         <v>9</v>
@@ -46852,7 +46831,7 @@
         <v>2.5</v>
       </c>
       <c r="K1129" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1129" s="2">
         <v>-110</v>
@@ -48902,7 +48881,7 @@
         <v>1</v>
       </c>
       <c r="K1179" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1179" s="2">
         <v>-115</v>
@@ -68989,10 +68968,10 @@
         <v>103</v>
       </c>
       <c r="J1669" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K1669" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="L1669" s="2">
         <v>-450</v>
@@ -69030,10 +69009,10 @@
         <v>115</v>
       </c>
       <c r="J1670" s="2">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="K1670" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="L1670" s="2">
         <v>-190</v>
@@ -69156,7 +69135,7 @@
         <v>7</v>
       </c>
       <c r="K1673" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L1673" s="2">
         <v>-135</v>
@@ -69235,10 +69214,10 @@
         <v>124</v>
       </c>
       <c r="J1675" s="2">
-        <v>-13.5</v>
+        <v>13.5</v>
       </c>
       <c r="K1675" s="2">
-        <v>-12.5</v>
+        <v>12.5</v>
       </c>
       <c r="L1675" s="2">
         <v>-1100</v>
@@ -69276,10 +69255,10 @@
         <v>112</v>
       </c>
       <c r="J1676" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K1676" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L1676" s="2">
         <v>-150</v>
@@ -69399,10 +69378,10 @@
         <v>119</v>
       </c>
       <c r="J1679" s="2">
-        <v>-8.5</v>
+        <v>8.5</v>
       </c>
       <c r="K1679" s="2">
-        <v>-9.5</v>
+        <v>9.5</v>
       </c>
       <c r="L1679" s="2">
         <v>-470</v>
@@ -69481,10 +69460,10 @@
         <v>110</v>
       </c>
       <c r="J1681" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K1681" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L1681" s="2">
         <v>-130</v>
@@ -73253,10 +73232,10 @@
         <v>125</v>
       </c>
       <c r="J1773" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K1773" s="2">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="L1773" s="2">
         <v>-140</v>
@@ -73335,10 +73314,10 @@
         <v>116</v>
       </c>
       <c r="J1775" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="K1775" s="2">
-        <v>-7.5</v>
+        <v>7.5</v>
       </c>
       <c r="L1775" s="2">
         <v>-330</v>
@@ -73417,10 +73396,10 @@
         <v>129</v>
       </c>
       <c r="J1777" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1777" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L1777" s="2">
         <v>-130</v>
@@ -73458,10 +73437,10 @@
         <v>113</v>
       </c>
       <c r="J1778" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="K1778" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="L1778" s="2">
         <v>-450</v>
@@ -73540,10 +73519,10 @@
         <v>88</v>
       </c>
       <c r="J1780" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="K1780" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="L1780" s="2">
         <v>-700</v>
@@ -73625,7 +73604,7 @@
         <v>1</v>
       </c>
       <c r="K1782" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1782" s="2">
         <v>-110</v>
@@ -73745,10 +73724,10 @@
         <v>114</v>
       </c>
       <c r="J1785" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K1785" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="L1785" s="2">
         <v>-185</v>
@@ -73827,10 +73806,10 @@
         <v>99</v>
       </c>
       <c r="J1787" s="2">
-        <v>-8.5</v>
+        <v>8.5</v>
       </c>
       <c r="K1787" s="2">
-        <v>-10.5</v>
+        <v>10.5</v>
       </c>
       <c r="L1787" s="2">
         <v>-550</v>
@@ -80243,7 +80222,7 @@
         <v>701</v>
       </c>
       <c r="C1944" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1944" s="2" t="s">
         <v>36</v>
@@ -80284,10 +80263,10 @@
         <v>702</v>
       </c>
       <c r="C1945" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1945" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E1945" s="2">
         <v>26</v>
@@ -80325,10 +80304,10 @@
         <v>703</v>
       </c>
       <c r="C1946" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1946" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E1946" s="2">
         <v>23</v>
@@ -80366,10 +80345,10 @@
         <v>704</v>
       </c>
       <c r="C1947" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1947" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E1947" s="2">
         <v>35</v>
@@ -80407,7 +80386,7 @@
         <v>705</v>
       </c>
       <c r="C1948" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1948" s="2" t="s">
         <v>22</v>
@@ -80448,7 +80427,7 @@
         <v>706</v>
       </c>
       <c r="C1949" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1949" s="2" t="s">
         <v>30</v>
@@ -80489,7 +80468,7 @@
         <v>707</v>
       </c>
       <c r="C1950" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1950" s="2" t="s">
         <v>27</v>
@@ -80530,7 +80509,7 @@
         <v>708</v>
       </c>
       <c r="C1951" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1951" s="2" t="s">
         <v>40</v>
@@ -80571,7 +80550,7 @@
         <v>709</v>
       </c>
       <c r="C1952" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1952" s="2" t="s">
         <v>38</v>
@@ -80612,7 +80591,7 @@
         <v>710</v>
       </c>
       <c r="C1953" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1953" s="2" t="s">
         <v>33</v>
@@ -80653,7 +80632,7 @@
         <v>711</v>
       </c>
       <c r="C1954" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1954" s="2" t="s">
         <v>25</v>
@@ -80694,7 +80673,7 @@
         <v>712</v>
       </c>
       <c r="C1955" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1955" s="2" t="s">
         <v>43</v>
@@ -80735,7 +80714,7 @@
         <v>713</v>
       </c>
       <c r="C1956" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1956" s="2" t="s">
         <v>37</v>
@@ -80776,10 +80755,10 @@
         <v>714</v>
       </c>
       <c r="C1957" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1957" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E1957" s="2">
         <v>43</v>
@@ -80817,7 +80796,7 @@
         <v>715</v>
       </c>
       <c r="C1958" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1958" s="2" t="s">
         <v>44</v>
@@ -80858,7 +80837,7 @@
         <v>716</v>
       </c>
       <c r="C1959" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1959" s="2" t="s">
         <v>34</v>
@@ -80899,7 +80878,7 @@
         <v>717</v>
       </c>
       <c r="C1960" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1960" s="2" t="s">
         <v>28</v>
@@ -80940,7 +80919,7 @@
         <v>718</v>
       </c>
       <c r="C1961" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1961" s="2" t="s">
         <v>39</v>
@@ -80981,7 +80960,7 @@
         <v>719</v>
       </c>
       <c r="C1962" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1962" s="2" t="s">
         <v>36</v>
@@ -81022,7 +81001,7 @@
         <v>720</v>
       </c>
       <c r="C1963" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1963" s="2" t="s">
         <v>35</v>
@@ -81063,10 +81042,10 @@
         <v>721</v>
       </c>
       <c r="C1964" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1964" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E1964" s="2">
         <v>25</v>
@@ -81104,10 +81083,10 @@
         <v>722</v>
       </c>
       <c r="C1965" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1965" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E1965" s="2">
         <v>37</v>
@@ -81145,7 +81124,7 @@
         <v>723</v>
       </c>
       <c r="C1966" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1966" s="2" t="s">
         <v>26</v>
@@ -81186,7 +81165,7 @@
         <v>724</v>
       </c>
       <c r="C1967" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1967" s="2" t="s">
         <v>20</v>
@@ -81227,10 +81206,10 @@
         <v>725</v>
       </c>
       <c r="C1968" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1968" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E1968" s="2">
         <v>21</v>
@@ -81268,7 +81247,7 @@
         <v>726</v>
       </c>
       <c r="C1969" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1969" s="2" t="s">
         <v>16</v>
@@ -81309,7 +81288,7 @@
         <v>727</v>
       </c>
       <c r="C1970" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1970" s="2" t="s">
         <v>33</v>
@@ -81350,7 +81329,7 @@
         <v>728</v>
       </c>
       <c r="C1971" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1971" s="2" t="s">
         <v>30</v>
@@ -81391,7 +81370,7 @@
         <v>729</v>
       </c>
       <c r="C1972" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1972" s="2" t="s">
         <v>40</v>
@@ -81432,7 +81411,7 @@
         <v>730</v>
       </c>
       <c r="C1973" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1973" s="2" t="s">
         <v>25</v>
@@ -81473,10 +81452,10 @@
         <v>731</v>
       </c>
       <c r="C1974" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1974" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E1974" s="2">
         <v>31</v>
@@ -81514,7 +81493,7 @@
         <v>732</v>
       </c>
       <c r="C1975" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1975" s="2" t="s">
         <v>27</v>
@@ -81555,7 +81534,7 @@
         <v>733</v>
       </c>
       <c r="C1976" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1976" s="2" t="s">
         <v>37</v>
@@ -81596,7 +81575,7 @@
         <v>734</v>
       </c>
       <c r="C1977" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1977" s="2" t="s">
         <v>22</v>
@@ -81637,7 +81616,7 @@
         <v>735</v>
       </c>
       <c r="C1978" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1978" s="2" t="s">
         <v>43</v>
@@ -81678,7 +81657,7 @@
         <v>736</v>
       </c>
       <c r="C1979" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1979" s="2" t="s">
         <v>44</v>
@@ -81719,7 +81698,7 @@
         <v>737</v>
       </c>
       <c r="C1980" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1980" s="2" t="s">
         <v>34</v>
@@ -81760,7 +81739,7 @@
         <v>738</v>
       </c>
       <c r="C1981" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1981" s="2" t="s">
         <v>38</v>
@@ -81801,7 +81780,7 @@
         <v>739</v>
       </c>
       <c r="C1982" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1982" s="2" t="s">
         <v>16</v>
@@ -81842,7 +81821,7 @@
         <v>740</v>
       </c>
       <c r="C1983" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1983" s="2" t="s">
         <v>28</v>
@@ -81883,7 +81862,7 @@
         <v>741</v>
       </c>
       <c r="C1984" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1984" s="2" t="s">
         <v>20</v>
@@ -81924,7 +81903,7 @@
         <v>742</v>
       </c>
       <c r="C1985" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1985" s="2" t="s">
         <v>33</v>
@@ -81965,7 +81944,7 @@
         <v>743</v>
       </c>
       <c r="C1986" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1986" s="2" t="s">
         <v>39</v>
@@ -82006,10 +81985,10 @@
         <v>744</v>
       </c>
       <c r="C1987" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1987" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E1987" s="2">
         <v>22</v>
@@ -82047,7 +82026,7 @@
         <v>745</v>
       </c>
       <c r="C1988" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1988" s="2" t="s">
         <v>27</v>
@@ -82088,10 +82067,10 @@
         <v>746</v>
       </c>
       <c r="C1989" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1989" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E1989" s="2">
         <v>26</v>
@@ -82129,10 +82108,10 @@
         <v>747</v>
       </c>
       <c r="C1990" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1990" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E1990" s="2">
         <v>32</v>
@@ -82170,7 +82149,7 @@
         <v>748</v>
       </c>
       <c r="C1991" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1991" s="2" t="s">
         <v>26</v>
@@ -82211,10 +82190,10 @@
         <v>749</v>
       </c>
       <c r="C1992" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1992" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E1992" s="2">
         <v>24</v>
@@ -82252,7 +82231,7 @@
         <v>750</v>
       </c>
       <c r="C1993" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1993" s="2" t="s">
         <v>36</v>
@@ -82293,7 +82272,7 @@
         <v>751</v>
       </c>
       <c r="C1994" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1994" s="2" t="s">
         <v>30</v>
@@ -82334,7 +82313,7 @@
         <v>752</v>
       </c>
       <c r="C1995" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1995" s="2" t="s">
         <v>43</v>
@@ -82375,7 +82354,7 @@
         <v>753</v>
       </c>
       <c r="C1996" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1996" s="2" t="s">
         <v>34</v>
@@ -82416,7 +82395,7 @@
         <v>754</v>
       </c>
       <c r="C1997" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1997" s="2" t="s">
         <v>37</v>
@@ -82457,7 +82436,7 @@
         <v>755</v>
       </c>
       <c r="C1998" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1998" s="2" t="s">
         <v>38</v>
@@ -82498,10 +82477,10 @@
         <v>756</v>
       </c>
       <c r="C1999" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1999" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E1999" s="2">
         <v>23</v>
@@ -82539,7 +82518,7 @@
         <v>757</v>
       </c>
       <c r="C2000" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2000" s="2" t="s">
         <v>22</v>
@@ -82580,7 +82559,7 @@
         <v>758</v>
       </c>
       <c r="C2001" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2001" s="2" t="s">
         <v>20</v>
@@ -82621,7 +82600,7 @@
         <v>759</v>
       </c>
       <c r="C2002" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2002" s="2" t="s">
         <v>25</v>
@@ -82662,7 +82641,7 @@
         <v>760</v>
       </c>
       <c r="C2003" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2003" s="2" t="s">
         <v>28</v>
@@ -82703,7 +82682,7 @@
         <v>761</v>
       </c>
       <c r="C2004" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2004" s="2" t="s">
         <v>44</v>
@@ -82744,7 +82723,7 @@
         <v>762</v>
       </c>
       <c r="C2005" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2005" s="2" t="s">
         <v>40</v>
@@ -82785,7 +82764,7 @@
         <v>763</v>
       </c>
       <c r="C2006" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2006" s="2" t="s">
         <v>27</v>
@@ -82826,7 +82805,7 @@
         <v>764</v>
       </c>
       <c r="C2007" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2007" s="2" t="s">
         <v>36</v>
@@ -82867,7 +82846,7 @@
         <v>765</v>
       </c>
       <c r="C2008" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2008" s="2" t="s">
         <v>26</v>
@@ -82908,7 +82887,7 @@
         <v>766</v>
       </c>
       <c r="C2009" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2009" s="2" t="s">
         <v>33</v>
@@ -82949,7 +82928,7 @@
         <v>767</v>
       </c>
       <c r="C2010" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2010" s="2" t="s">
         <v>39</v>
@@ -82990,10 +82969,10 @@
         <v>768</v>
       </c>
       <c r="C2011" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2011" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E2011" s="2">
         <v>28</v>
@@ -83031,10 +83010,10 @@
         <v>769</v>
       </c>
       <c r="C2012" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2012" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2012" s="2">
         <v>26</v>
@@ -83072,10 +83051,10 @@
         <v>770</v>
       </c>
       <c r="C2013" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2013" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E2013" s="2">
         <v>18</v>
@@ -83113,7 +83092,7 @@
         <v>771</v>
       </c>
       <c r="C2014" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2014" s="2" t="s">
         <v>16</v>
@@ -83154,7 +83133,7 @@
         <v>772</v>
       </c>
       <c r="C2015" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2015" s="2" t="s">
         <v>22</v>
@@ -83195,7 +83174,7 @@
         <v>773</v>
       </c>
       <c r="C2016" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2016" s="2" t="s">
         <v>30</v>
@@ -83236,7 +83215,7 @@
         <v>774</v>
       </c>
       <c r="C2017" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2017" s="2" t="s">
         <v>25</v>
@@ -83277,10 +83256,10 @@
         <v>775</v>
       </c>
       <c r="C2018" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2018" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E2018" s="2">
         <v>39</v>
@@ -83318,7 +83297,7 @@
         <v>776</v>
       </c>
       <c r="C2019" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2019" s="2" t="s">
         <v>37</v>
@@ -83359,7 +83338,7 @@
         <v>777</v>
       </c>
       <c r="C2020" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2020" s="2" t="s">
         <v>28</v>
@@ -83400,7 +83379,7 @@
         <v>778</v>
       </c>
       <c r="C2021" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2021" s="2" t="s">
         <v>43</v>
@@ -83441,7 +83420,7 @@
         <v>779</v>
       </c>
       <c r="C2022" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2022" s="2" t="s">
         <v>20</v>
@@ -83482,7 +83461,7 @@
         <v>780</v>
       </c>
       <c r="C2023" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2023" s="2" t="s">
         <v>38</v>
@@ -83523,10 +83502,10 @@
         <v>781</v>
       </c>
       <c r="C2024" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2024" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E2024" s="2">
         <v>23</v>
@@ -83564,7 +83543,7 @@
         <v>782</v>
       </c>
       <c r="C2025" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2025" s="2" t="s">
         <v>34</v>
@@ -83605,7 +83584,7 @@
         <v>783</v>
       </c>
       <c r="C2026" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2026" s="2" t="s">
         <v>40</v>
@@ -83646,7 +83625,7 @@
         <v>784</v>
       </c>
       <c r="C2027" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2027" s="2" t="s">
         <v>39</v>
@@ -83687,10 +83666,10 @@
         <v>785</v>
       </c>
       <c r="C2028" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2028" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E2028" s="2">
         <v>26</v>
@@ -83728,7 +83707,7 @@
         <v>786</v>
       </c>
       <c r="C2029" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2029" s="2" t="s">
         <v>44</v>
@@ -83769,7 +83748,7 @@
         <v>701</v>
       </c>
       <c r="C2030" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2030" s="2" t="s">
         <v>36</v>
@@ -83810,10 +83789,10 @@
         <v>702</v>
       </c>
       <c r="C2031" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2031" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E2031" s="2">
         <v>36</v>
@@ -83851,10 +83830,10 @@
         <v>703</v>
       </c>
       <c r="C2032" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2032" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2032" s="2">
         <v>37</v>
@@ -83892,7 +83871,7 @@
         <v>704</v>
       </c>
       <c r="C2033" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2033" s="2" t="s">
         <v>27</v>
@@ -83933,7 +83912,7 @@
         <v>705</v>
       </c>
       <c r="C2034" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2034" s="2" t="s">
         <v>37</v>
@@ -83974,7 +83953,7 @@
         <v>706</v>
       </c>
       <c r="C2035" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2035" s="2" t="s">
         <v>30</v>
@@ -84015,7 +83994,7 @@
         <v>707</v>
       </c>
       <c r="C2036" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2036" s="2" t="s">
         <v>22</v>
@@ -84056,7 +84035,7 @@
         <v>708</v>
       </c>
       <c r="C2037" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2037" s="2" t="s">
         <v>26</v>
@@ -84097,7 +84076,7 @@
         <v>709</v>
       </c>
       <c r="C2038" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2038" s="2" t="s">
         <v>33</v>
@@ -84138,10 +84117,10 @@
         <v>710</v>
       </c>
       <c r="C2039" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2039" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E2039" s="2">
         <v>28</v>
@@ -84179,7 +84158,7 @@
         <v>711</v>
       </c>
       <c r="C2040" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2040" s="2" t="s">
         <v>25</v>
@@ -84220,7 +84199,7 @@
         <v>712</v>
       </c>
       <c r="C2041" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2041" s="2" t="s">
         <v>16</v>
@@ -84261,10 +84240,10 @@
         <v>713</v>
       </c>
       <c r="C2042" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2042" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E2042" s="2">
         <v>34</v>
@@ -84302,7 +84281,7 @@
         <v>714</v>
       </c>
       <c r="C2043" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2043" s="2" t="s">
         <v>40</v>
@@ -84343,7 +84322,7 @@
         <v>715</v>
       </c>
       <c r="C2044" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2044" s="2" t="s">
         <v>36</v>
@@ -84384,7 +84363,7 @@
         <v>716</v>
       </c>
       <c r="C2045" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2045" s="2" t="s">
         <v>39</v>
@@ -84425,10 +84404,10 @@
         <v>717</v>
       </c>
       <c r="C2046" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2046" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E2046" s="2">
         <v>24</v>
@@ -84466,7 +84445,7 @@
         <v>718</v>
       </c>
       <c r="C2047" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2047" s="2" t="s">
         <v>20</v>
@@ -84507,7 +84486,7 @@
         <v>719</v>
       </c>
       <c r="C2048" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2048" s="2" t="s">
         <v>38</v>
@@ -84548,7 +84527,7 @@
         <v>720</v>
       </c>
       <c r="C2049" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2049" s="2" t="s">
         <v>28</v>
@@ -84589,7 +84568,7 @@
         <v>721</v>
       </c>
       <c r="C2050" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2050" s="2" t="s">
         <v>43</v>
@@ -84630,7 +84609,7 @@
         <v>722</v>
       </c>
       <c r="C2051" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2051" s="2" t="s">
         <v>34</v>
@@ -84671,7 +84650,7 @@
         <v>723</v>
       </c>
       <c r="C2052" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2052" s="2" t="s">
         <v>33</v>
@@ -84712,10 +84691,10 @@
         <v>724</v>
       </c>
       <c r="C2053" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2053" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2053" s="2">
         <v>32</v>
@@ -84753,7 +84732,7 @@
         <v>725</v>
       </c>
       <c r="C2054" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2054" s="2" t="s">
         <v>27</v>
@@ -84794,7 +84773,7 @@
         <v>726</v>
       </c>
       <c r="C2055" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2055" s="2" t="s">
         <v>16</v>
@@ -84835,10 +84814,10 @@
         <v>727</v>
       </c>
       <c r="C2056" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2056" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E2056" s="2">
         <v>27</v>
@@ -84876,10 +84855,10 @@
         <v>728</v>
       </c>
       <c r="C2057" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2057" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E2057" s="2">
         <v>19</v>
@@ -84917,7 +84896,7 @@
         <v>729</v>
       </c>
       <c r="C2058" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2058" s="2" t="s">
         <v>22</v>
@@ -84958,7 +84937,7 @@
         <v>730</v>
       </c>
       <c r="C2059" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2059" s="2" t="s">
         <v>25</v>
@@ -84999,7 +84978,7 @@
         <v>731</v>
       </c>
       <c r="C2060" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2060" s="2" t="s">
         <v>26</v>
@@ -85040,7 +85019,7 @@
         <v>732</v>
       </c>
       <c r="C2061" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2061" s="2" t="s">
         <v>40</v>
@@ -85081,7 +85060,7 @@
         <v>733</v>
       </c>
       <c r="C2062" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2062" s="2" t="s">
         <v>44</v>
@@ -85122,7 +85101,7 @@
         <v>734</v>
       </c>
       <c r="C2063" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2063" s="2" t="s">
         <v>37</v>
@@ -85163,7 +85142,7 @@
         <v>735</v>
       </c>
       <c r="C2064" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2064" s="2" t="s">
         <v>30</v>
@@ -85204,10 +85183,10 @@
         <v>736</v>
       </c>
       <c r="C2065" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2065" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E2065" s="2">
         <v>24</v>
@@ -85245,10 +85224,10 @@
         <v>737</v>
       </c>
       <c r="C2066" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2066" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2066" s="2">
         <v>37</v>
@@ -85286,7 +85265,7 @@
         <v>738</v>
       </c>
       <c r="C2067" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2067" s="2" t="s">
         <v>38</v>
@@ -85327,7 +85306,7 @@
         <v>739</v>
       </c>
       <c r="C2068" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2068" s="2" t="s">
         <v>34</v>
@@ -85368,7 +85347,7 @@
         <v>740</v>
       </c>
       <c r="C2069" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2069" s="2" t="s">
         <v>36</v>
@@ -85409,7 +85388,7 @@
         <v>741</v>
       </c>
       <c r="C2070" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2070" s="2" t="s">
         <v>16</v>
@@ -85450,7 +85429,7 @@
         <v>742</v>
       </c>
       <c r="C2071" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2071" s="2" t="s">
         <v>43</v>
@@ -85491,7 +85470,7 @@
         <v>743</v>
       </c>
       <c r="C2072" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2072" s="2" t="s">
         <v>20</v>
@@ -85532,7 +85511,7 @@
         <v>744</v>
       </c>
       <c r="C2073" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2073" s="2" t="s">
         <v>28</v>
@@ -85573,7 +85552,7 @@
         <v>745</v>
       </c>
       <c r="C2074" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2074" s="2" t="s">
         <v>39</v>
@@ -85614,10 +85593,10 @@
         <v>746</v>
       </c>
       <c r="C2075" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2075" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E2075" s="2">
         <v>31</v>
@@ -85655,7 +85634,7 @@
         <v>747</v>
       </c>
       <c r="C2076" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2076" s="2" t="s">
         <v>30</v>
@@ -85696,7 +85675,7 @@
         <v>748</v>
       </c>
       <c r="C2077" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2077" s="2" t="s">
         <v>22</v>
@@ -85737,7 +85716,7 @@
         <v>749</v>
       </c>
       <c r="C2078" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2078" s="2" t="s">
         <v>44</v>
@@ -85778,10 +85757,10 @@
         <v>750</v>
       </c>
       <c r="C2079" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2079" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E2079" s="2">
         <v>31</v>
@@ -85819,7 +85798,7 @@
         <v>751</v>
       </c>
       <c r="C2080" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2080" s="2" t="s">
         <v>38</v>
@@ -85860,7 +85839,7 @@
         <v>752</v>
       </c>
       <c r="C2081" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2081" s="2" t="s">
         <v>26</v>
@@ -85901,7 +85880,7 @@
         <v>753</v>
       </c>
       <c r="C2082" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2082" s="2" t="s">
         <v>40</v>
@@ -85942,7 +85921,7 @@
         <v>754</v>
       </c>
       <c r="C2083" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2083" s="2" t="s">
         <v>34</v>
@@ -85983,7 +85962,7 @@
         <v>755</v>
       </c>
       <c r="C2084" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2084" s="2" t="s">
         <v>25</v>
@@ -86024,7 +86003,7 @@
         <v>756</v>
       </c>
       <c r="C2085" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2085" s="2" t="s">
         <v>27</v>
@@ -86065,10 +86044,10 @@
         <v>757</v>
       </c>
       <c r="C2086" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2086" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E2086" s="2">
         <v>29</v>
@@ -86106,7 +86085,7 @@
         <v>758</v>
       </c>
       <c r="C2087" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2087" s="2" t="s">
         <v>37</v>
@@ -86147,7 +86126,7 @@
         <v>759</v>
       </c>
       <c r="C2088" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2088" s="2" t="s">
         <v>43</v>
@@ -86188,7 +86167,7 @@
         <v>760</v>
       </c>
       <c r="C2089" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2089" s="2" t="s">
         <v>33</v>
@@ -86219,6 +86198,1318 @@
       </c>
       <c r="M2089" s="2">
         <v>114</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2090" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2090" s="2">
+        <v>761</v>
+      </c>
+      <c r="C2090" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2090" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2090" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2090" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2090" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2090" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2090" s="2">
+        <v>108</v>
+      </c>
+      <c r="J2090" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="K2090" s="2">
+        <v>231.5</v>
+      </c>
+      <c r="L2090" s="2">
+        <v>240</v>
+      </c>
+      <c r="M2090" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2091" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2091" s="2">
+        <v>762</v>
+      </c>
+      <c r="C2091" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2091" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2091" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2091" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2091" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2091" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2091" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2091" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2091" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L2091" s="2">
+        <v>-280</v>
+      </c>
+      <c r="M2091" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2092" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2092" s="2">
+        <v>763</v>
+      </c>
+      <c r="C2092" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2092" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2092" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2092" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2092" s="2">
+        <v>35</v>
+      </c>
+      <c r="H2092" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2092" s="2">
+        <v>125</v>
+      </c>
+      <c r="J2092" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K2092" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2092" s="2">
+        <v>-260</v>
+      </c>
+      <c r="M2092" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2093" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2093" s="2">
+        <v>764</v>
+      </c>
+      <c r="C2093" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2093" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2093" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2093" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2093" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2093" s="2">
+        <v>33</v>
+      </c>
+      <c r="I2093" s="2">
+        <v>121</v>
+      </c>
+      <c r="J2093" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="K2093" s="2">
+        <v>222</v>
+      </c>
+      <c r="L2093" s="2">
+        <v>220</v>
+      </c>
+      <c r="M2093" s="2">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2094" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2094" s="2">
+        <v>765</v>
+      </c>
+      <c r="C2094" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2094" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2094" s="2">
+        <v>42</v>
+      </c>
+      <c r="F2094" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2094" s="2">
+        <v>34</v>
+      </c>
+      <c r="H2094" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2094" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2094" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K2094" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2094" s="2">
+        <v>-170</v>
+      </c>
+      <c r="M2094" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2095" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2095" s="2">
+        <v>766</v>
+      </c>
+      <c r="C2095" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2095" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2095" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2095" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2095" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2095" s="2">
+        <v>34</v>
+      </c>
+      <c r="I2095" s="2">
+        <v>116</v>
+      </c>
+      <c r="J2095" s="2">
+        <v>218.5</v>
+      </c>
+      <c r="K2095" s="2">
+        <v>221</v>
+      </c>
+      <c r="L2095" s="2">
+        <v>150</v>
+      </c>
+      <c r="M2095" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2096" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2096" s="2">
+        <v>767</v>
+      </c>
+      <c r="C2096" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2096" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2096" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2096" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2096" s="2">
+        <v>40</v>
+      </c>
+      <c r="H2096" s="2">
+        <v>34</v>
+      </c>
+      <c r="I2096" s="2">
+        <v>124</v>
+      </c>
+      <c r="J2096" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2096" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2096" s="2">
+        <v>-200</v>
+      </c>
+      <c r="M2096" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2097" s="2">
+        <v>812</v>
+      </c>
+      <c r="B2097" s="2">
+        <v>768</v>
+      </c>
+      <c r="C2097" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2097" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2097" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2097" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2097" s="2">
+        <v>34</v>
+      </c>
+      <c r="H2097" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2097" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2097" s="2">
+        <v>230</v>
+      </c>
+      <c r="K2097" s="2">
+        <v>230</v>
+      </c>
+      <c r="L2097" s="2">
+        <v>175</v>
+      </c>
+      <c r="M2097" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2098" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2098" s="2">
+        <v>701</v>
+      </c>
+      <c r="C2098" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2098" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2098" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2098" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2098" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2098" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2098" s="2">
+        <v>127</v>
+      </c>
+      <c r="J2098" s="2">
+        <v>227.5</v>
+      </c>
+      <c r="K2098" s="2">
+        <v>227</v>
+      </c>
+      <c r="L2098" s="2">
+        <v>150</v>
+      </c>
+      <c r="M2098" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2099" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2099" s="2">
+        <v>702</v>
+      </c>
+      <c r="C2099" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2099" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2099" s="2">
+        <v>34</v>
+      </c>
+      <c r="F2099" s="2">
+        <v>43</v>
+      </c>
+      <c r="G2099" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2099" s="2">
+        <v>34</v>
+      </c>
+      <c r="I2099" s="2">
+        <v>133</v>
+      </c>
+      <c r="J2099" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2099" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2099" s="2">
+        <v>-170</v>
+      </c>
+      <c r="M2099" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2100" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2100" s="2">
+        <v>703</v>
+      </c>
+      <c r="C2100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2100" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2100" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2100" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2100" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2100" s="2">
+        <v>106</v>
+      </c>
+      <c r="J2100" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="K2100" s="2">
+        <v>231</v>
+      </c>
+      <c r="L2100" s="2">
+        <v>145</v>
+      </c>
+      <c r="M2100" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2101" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2101" s="2">
+        <v>704</v>
+      </c>
+      <c r="C2101" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2101" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2101" s="2">
+        <v>38</v>
+      </c>
+      <c r="G2101" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2101" s="2">
+        <v>26</v>
+      </c>
+      <c r="I2101" s="2">
+        <v>119</v>
+      </c>
+      <c r="J2101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2101" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2101" s="2">
+        <v>-165</v>
+      </c>
+      <c r="M2101" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2102" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2102" s="2">
+        <v>705</v>
+      </c>
+      <c r="C2102" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2102" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2102" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2102" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2102" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2102" s="2">
+        <v>112</v>
+      </c>
+      <c r="J2102" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2102" s="2">
+        <v>7</v>
+      </c>
+      <c r="L2102" s="2">
+        <v>-280</v>
+      </c>
+      <c r="M2102" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2103" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2103" s="2">
+        <v>706</v>
+      </c>
+      <c r="C2103" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2103" s="2">
+        <v>41</v>
+      </c>
+      <c r="F2103" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2103" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2103" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2103" s="2">
+        <v>118</v>
+      </c>
+      <c r="J2103" s="2">
+        <v>231</v>
+      </c>
+      <c r="K2103" s="2">
+        <v>234</v>
+      </c>
+      <c r="L2103" s="2">
+        <v>240</v>
+      </c>
+      <c r="M2103" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2104" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2104" s="2">
+        <v>707</v>
+      </c>
+      <c r="C2104" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2104" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2104" s="2">
+        <v>36</v>
+      </c>
+      <c r="G2104" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2104" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2104" s="2">
+        <v>136</v>
+      </c>
+      <c r="J2104" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="K2104" s="2">
+        <v>221.5</v>
+      </c>
+      <c r="L2104" s="2">
+        <v>150</v>
+      </c>
+      <c r="M2104" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2105" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2105" s="2">
+        <v>708</v>
+      </c>
+      <c r="C2105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2105" s="2">
+        <v>40</v>
+      </c>
+      <c r="F2105" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2105" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2105" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2105" s="2">
+        <v>122</v>
+      </c>
+      <c r="J2105" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K2105" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2105" s="2">
+        <v>-170</v>
+      </c>
+      <c r="M2105" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2106" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2106" s="2">
+        <v>709</v>
+      </c>
+      <c r="C2106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2106" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2106" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2106" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2106" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2106" s="2">
+        <v>96</v>
+      </c>
+      <c r="J2106" s="2">
+        <v>11</v>
+      </c>
+      <c r="K2106" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2106" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2106" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2107" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2107" s="2">
+        <v>710</v>
+      </c>
+      <c r="C2107" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2107" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2107" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2107" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2107" s="2">
+        <v>13</v>
+      </c>
+      <c r="I2107" s="2">
+        <v>90</v>
+      </c>
+      <c r="J2107" s="2">
+        <v>230.5</v>
+      </c>
+      <c r="K2107" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="L2107" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2107" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2108" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2108" s="2">
+        <v>711</v>
+      </c>
+      <c r="C2108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2108" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2108" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2108" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2108" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2108" s="2">
+        <v>102</v>
+      </c>
+      <c r="J2108" s="2">
+        <v>229</v>
+      </c>
+      <c r="K2108" s="2">
+        <v>238.5</v>
+      </c>
+      <c r="L2108" s="2">
+        <v>320</v>
+      </c>
+      <c r="M2108" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2109" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2109" s="2">
+        <v>712</v>
+      </c>
+      <c r="C2109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2109" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2109" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2109" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2109" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2109" s="2">
+        <v>128</v>
+      </c>
+      <c r="J2109" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K2109" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L2109" s="2">
+        <v>-380</v>
+      </c>
+      <c r="M2109" s="2">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2110" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2110" s="2">
+        <v>713</v>
+      </c>
+      <c r="C2110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2110" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2110" s="2">
+        <v>42</v>
+      </c>
+      <c r="G2110" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2110" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2110" s="2">
+        <v>134</v>
+      </c>
+      <c r="J2110" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2110" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L2110" s="2">
+        <v>-850</v>
+      </c>
+      <c r="M2110" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2111" s="2">
+        <v>813</v>
+      </c>
+      <c r="B2111" s="2">
+        <v>714</v>
+      </c>
+      <c r="C2111" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2111" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2111" s="2">
+        <v>36</v>
+      </c>
+      <c r="G2111" s="2">
+        <v>37</v>
+      </c>
+      <c r="H2111" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2111" s="2">
+        <v>133</v>
+      </c>
+      <c r="J2111" s="2">
+        <v>235</v>
+      </c>
+      <c r="K2111" s="2">
+        <v>238.5</v>
+      </c>
+      <c r="L2111" s="2">
+        <v>575</v>
+      </c>
+      <c r="M2111" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2112" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2112" s="2">
+        <v>715</v>
+      </c>
+      <c r="C2112" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2112" s="2">
+        <v>39</v>
+      </c>
+      <c r="F2112" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2112" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2112" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2112" s="2">
+        <v>134</v>
+      </c>
+      <c r="J2112" s="2">
+        <v>228.5</v>
+      </c>
+      <c r="K2112" s="2">
+        <v>230.5</v>
+      </c>
+      <c r="L2112" s="2">
+        <v>120</v>
+      </c>
+      <c r="M2112" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2113" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2113" s="2">
+        <v>716</v>
+      </c>
+      <c r="C2113" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2113" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2113" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2113" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2113" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2113" s="2">
+        <v>96</v>
+      </c>
+      <c r="J2113" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K2113" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L2113" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M2113" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2114" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2114" s="2">
+        <v>717</v>
+      </c>
+      <c r="C2114" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2114" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2114" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2114" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2114" s="2">
+        <v>33</v>
+      </c>
+      <c r="I2114" s="2">
+        <v>109</v>
+      </c>
+      <c r="J2114" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2114" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L2114" s="2">
+        <v>-145</v>
+      </c>
+      <c r="M2114" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2115" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2115" s="2">
+        <v>718</v>
+      </c>
+      <c r="C2115" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2115" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2115" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2115" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2115" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2115" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2115" s="2">
+        <v>224</v>
+      </c>
+      <c r="K2115" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="L2115" s="2">
+        <v>125</v>
+      </c>
+      <c r="M2115" s="2">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2116" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2116" s="2">
+        <v>719</v>
+      </c>
+      <c r="C2116" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2116" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2116" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2116" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2116" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2116" s="2">
+        <v>103</v>
+      </c>
+      <c r="J2116" s="2">
+        <v>222</v>
+      </c>
+      <c r="K2116" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="L2116" s="2">
+        <v>135</v>
+      </c>
+      <c r="M2116" s="2">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2117" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2117" s="2">
+        <v>720</v>
+      </c>
+      <c r="C2117" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2117" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2117" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2117" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2117" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2117" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2117" s="2">
+        <v>6</v>
+      </c>
+      <c r="K2117" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2117" s="2">
+        <v>-155</v>
+      </c>
+      <c r="M2117" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2118" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2118" s="2">
+        <v>721</v>
+      </c>
+      <c r="C2118" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2118" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2118" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2118" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2118" s="2">
+        <v>22</v>
+      </c>
+      <c r="I2118" s="2">
+        <v>92</v>
+      </c>
+      <c r="J2118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2118" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2118" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2118" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2119" s="2">
+        <v>814</v>
+      </c>
+      <c r="B2119" s="2">
+        <v>722</v>
+      </c>
+      <c r="C2119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2119" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2119" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2119" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2119" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2119" s="2">
+        <v>109</v>
+      </c>
+      <c r="J2119" s="2">
+        <v>216</v>
+      </c>
+      <c r="K2119" s="2">
+        <v>221.5</v>
+      </c>
+      <c r="L2119" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2119" s="2">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2120" s="2">
+        <v>815</v>
+      </c>
+      <c r="B2120" s="2">
+        <v>723</v>
+      </c>
+      <c r="C2120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2120" s="2">
+        <v>19</v>
+      </c>
+      <c r="F2120" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2120" s="2">
+        <v>42</v>
+      </c>
+      <c r="H2120" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2120" s="2">
+        <v>122</v>
+      </c>
+      <c r="J2120" s="2">
+        <v>231.5</v>
+      </c>
+      <c r="K2120" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="L2120" s="2">
+        <v>220</v>
+      </c>
+      <c r="M2120" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2121" s="2">
+        <v>815</v>
+      </c>
+      <c r="B2121" s="2">
+        <v>724</v>
+      </c>
+      <c r="C2121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2121" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2121" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2121" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2121" s="2">
+        <v>31</v>
+      </c>
+      <c r="H2121" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2121" s="2">
+        <v>126</v>
+      </c>
+      <c r="J2121" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K2121" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2121" s="2">
+        <v>-260</v>
+      </c>
+      <c r="M2121" s="2">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
